--- a/DMSNewVSale_2025-12-02_19-37.xlsx
+++ b/DMSNewVSale_2025-12-02_19-37.xlsx
@@ -635,6 +635,15 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -782,78 +791,78 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>VONOPRAVIN 20M 28 F.C. TAB</t>
+  </si>
+  <si>
+    <t>276.00</t>
+  </si>
+  <si>
+    <t>276.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>7965:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>7.5000</t>
+  </si>
+  <si>
+    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>VONOPRAVIN 20M 28 F.C. TAB</t>
-  </si>
-  <si>
-    <t>276.00</t>
-  </si>
-  <si>
-    <t>276.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>7965:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>7.5000</t>
-  </si>
-  <si>
-    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>ZINCTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>294.00</t>
-  </si>
-  <si>
-    <t>97.0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -873,9 +882,6 @@
   </si>
   <si>
     <t>20.0000</t>
-  </si>
-  <si>
-    <t>10:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -3698,7 +3704,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3715,7 +3721,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3731,7 +3737,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3741,14 +3747,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>124</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3757,14 +3763,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3774,14 +3780,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3790,7 +3796,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3807,11 +3813,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>64</v>
@@ -3823,7 +3829,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3840,14 +3846,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3863,7 +3869,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3906,11 +3912,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>17</v>
@@ -3922,7 +3928,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3939,7 +3945,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3962,7 +3968,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3972,14 +3978,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3988,14 +3994,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4012,7 +4018,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4028,21 +4034,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>49</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>50</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>17</v>
@@ -4054,7 +4060,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4067,15 +4073,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>17</v>
@@ -4094,7 +4100,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4137,14 +4143,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4153,14 +4159,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4170,14 +4176,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4186,31 +4192,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>72</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4219,28 +4225,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>15</v>
@@ -4259,7 +4265,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4269,14 +4275,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4285,7 +4291,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4302,14 +4308,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>116</v>
+        <v>240</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4318,14 +4324,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4335,7 +4341,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>116</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4358,7 +4364,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>64</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4368,11 +4374,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>17</v>
@@ -4384,14 +4390,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4405,10 +4411,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4417,14 +4423,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4434,14 +4440,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4450,14 +4456,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4467,14 +4473,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4483,14 +4489,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4500,14 +4506,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4516,14 +4522,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4533,14 +4539,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4549,14 +4555,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4566,14 +4572,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4582,14 +4588,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4599,14 +4605,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4615,31 +4621,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4655,7 +4661,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>257</v>
+        <v>104</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4669,10 +4675,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4681,14 +4687,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4698,11 +4704,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>17</v>
@@ -4714,14 +4720,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4731,14 +4737,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>288</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4747,7 +4753,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4764,14 +4770,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>24</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4780,7 +4786,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4797,14 +4803,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4813,7 +4819,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4830,11 +4836,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>69</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>17</v>
@@ -4853,7 +4859,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>288</v>
+        <v>31</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4863,11 +4869,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>284</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>17</v>
@@ -4879,14 +4885,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>17</v>
+        <v>260</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4896,7 +4902,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4919,7 +4925,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4929,11 +4935,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>17</v>
@@ -4945,14 +4951,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4962,11 +4968,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>92</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>17</v>
@@ -4978,14 +4984,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4995,11 +5001,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>17</v>
@@ -5028,11 +5034,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>17</v>
@@ -5044,14 +5050,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5061,51 +5067,84 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>308</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>309</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>36</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>296</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>69</v>
       </c>
-      <c t="s" r="Q112" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" ht="25.5" customHeight="1">
-      <c r="N113" s="13">
-        <v>7085.625</v>
-      </c>
-      <c r="O113" s="13"/>
-      <c r="P113" s="13"/>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>308</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>309</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c t="s" r="Q113" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" ht="26.25" customHeight="1">
+      <c r="N114" s="13">
+        <v>7139.625</v>
+      </c>
+      <c r="O114" s="13"/>
+      <c r="P114" s="13"/>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
         <v>310</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>311</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>312</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5644,10 +5683,15 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="N114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
